--- a/testData/authorization_test_data.xlsx
+++ b/testData/authorization_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_authorization" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="access_approvel" sheetId="18" r:id="rId6"/>
     <sheet name="double_approvel" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="127">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gyrgg123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混合授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,6 +520,14 @@
   </si>
   <si>
     <t>双人授权候选人(0/0/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyryw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyruser123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,22 +1055,22 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1116,7 +1120,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -1139,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1420,24 +1424,24 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="17" width="15.625" customWidth="1"/>
-    <col min="18" max="18" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1">
@@ -1517,22 +1521,22 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="29.625" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -1712,7 +1716,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8"/>
@@ -1736,11 +1740,11 @@
         <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -1781,19 +1785,19 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="31.75" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2072,14 +2076,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2170,7 +2174,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2248,15 +2252,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
@@ -2296,7 +2300,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2321,7 +2325,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2346,7 +2350,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2367,7 +2371,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2391,19 +2395,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2438,19 +2442,19 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>108</v>
@@ -2462,7 +2466,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2470,7 +2474,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>108</v>
@@ -2482,7 +2486,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2490,7 +2494,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>108</v>
